--- a/VISUALS.xlsx
+++ b/VISUALS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0178387F-0AAD-45F5-A85B-0D876BFD5EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B6F8A-607F-4211-9183-2E07300DFBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1BB4984-FF72-4182-9EB9-7F41BEF14678}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Componente</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>0.8886 ± 0.0035</t>
+  </si>
+  <si>
+    <t>TASA TOTAL SIN RIESGO</t>
+  </si>
+  <si>
+    <t>Tasa total sin tomar en cuenta probabilidad de default</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +361,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,275 +703,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597B0000-8B07-4113-A49A-B9DEF74FAFDB}">
-  <dimension ref="B9:E35"/>
+  <dimension ref="B4:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="83.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+      <c r="B10" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
+        <f>SUM(C5:C9)</f>
+        <v>0.1976</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>2</v>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>36</v>
+      <c r="B26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>40</v>
+      <c r="B27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>44</v>
+      <c r="B28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C29" s="10">
         <v>0.80879999999999996</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D29" s="10">
         <v>0.94540000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>57</v>
       </c>
     </row>
